--- a/기획폴더/테이블 엑셀 문서/RecipeProbabilityTable.xlsx
+++ b/기획폴더/테이블 엑셀 문서/RecipeProbabilityTable.xlsx
@@ -1516,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>85.0</v>
+        <v>19.0</v>
       </c>
       <c r="D6" s="3">
         <v>50.0</v>
@@ -1533,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="3">
         <v>30.0</v>
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="5">
-        <v>85.0</v>
+        <v>19.0</v>
       </c>
       <c r="D9" s="3">
         <v>40.0</v>
@@ -1601,7 +1601,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="5">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="3">
         <v>20.0</v>
@@ -1618,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="5">
-        <v>85.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" s="3">
         <v>20.0</v>
@@ -1635,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>39.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" s="3">
         <v>20.0</v>
@@ -1652,7 +1652,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="5">
-        <v>84.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14" s="3">
         <v>20.0</v>

--- a/기획폴더/테이블 엑셀 문서/RecipeProbabilityTable.xlsx
+++ b/기획폴더/테이블 엑셀 문서/RecipeProbabilityTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>테이블 용도: 레시피 등장하는 확률 및 점수를 관리하는 데이터 테이블</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>1-5스테이지</t>
+  </si>
+  <si>
+    <t>2-1스테이지</t>
   </si>
 </sst>
 </file>
@@ -1662,9 +1665,22 @@
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
